--- a/lib/net45/Data/Config.xlsx
+++ b/lib/net45/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INGESI\Documents\IP_Allocation_Dispatcher.1.0.70\lib\net45\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ipenda\Documents\UiPath\IP_Allocation_Dispatcher.1.0.84\lib\net45\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6FA4CA-5C84-44B4-B00B-A14743796207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A331B5-4CF6-4BFF-9DE9-4AD6665F5A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="10680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1729,6 +1729,9 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K737373 Commercial in Confidence&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2892,6 +2895,9 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K737373 Commercial in Confidence&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2900,7 +2906,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4093,5 +4099,8 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;K737373 Commercial in Confidence&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
--- a/lib/net45/Data/Config.xlsx
+++ b/lib/net45/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ipenda\Documents\UiPath\IP_Allocation_Dispatcher.1.0.84\lib\net45\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A331B5-4CF6-4BFF-9DE9-4AD6665F5A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1627766-47DD-4FA9-82E0-DF003154AB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="3885" windowWidth="21600" windowHeight="10680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -207,12 +207,6 @@
     <t>Accenture_SharePoint</t>
   </si>
   <si>
-    <t>User_Details_File</t>
-  </si>
-  <si>
-    <t>UserDetails_File</t>
-  </si>
-  <si>
     <t>Accenture_Finance_SharePoint</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>TimeoutDelay</t>
   </si>
   <si>
-    <t>Bank Holiday List</t>
-  </si>
-  <si>
     <t>SharePointTenantId</t>
   </si>
   <si>
@@ -256,6 +247,27 @@
   </si>
   <si>
     <t>SharePointAppID</t>
+  </si>
+  <si>
+    <t>UipathRPA-SPO-DevOpsDigitalServices-SU</t>
+  </si>
+  <si>
+    <t>UipathRPA-SPO-AccentureFinanceTeam-SU</t>
+  </si>
+  <si>
+    <t>DevOpsSharePoint</t>
+  </si>
+  <si>
+    <t>BankHoliday_SubFolder</t>
+  </si>
+  <si>
+    <t>BankHoliday_FileName</t>
+  </si>
+  <si>
+    <t>DevOps_FileSharePoint</t>
+  </si>
+  <si>
+    <t>Accenture_FileSharePoint</t>
   </si>
 </sst>
 </file>
@@ -335,9 +347,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -375,7 +387,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -481,7 +493,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -623,7 +635,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,7 +646,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -728,16 +740,28 @@
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2903,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z993"/>
+  <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3013,18 +3037,18 @@
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
@@ -3032,10 +3056,10 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>48</v>
@@ -3043,10 +3067,10 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C10" t="s">
         <v>48</v>
@@ -3057,18 +3081,18 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -3076,10 +3100,10 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -3087,7 +3111,7 @@
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -3098,10 +3122,10 @@
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
@@ -3109,31 +3133,41 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4093,8 +4127,6 @@
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
     <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/net45/Data/Config.xlsx
+++ b/lib/net45/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ipenda\Documents\UiPath\IP_Allocation_Dispatcher.1.0.84\lib\net45\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INGESI\studio\UiPath\IP_Allocation_Dispatcher.1.0.84\lib\net45\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1627766-47DD-4FA9-82E0-DF003154AB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199B5C9A-D25B-4F00-AA25-9C26D1FD1009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="3885" windowWidth="21600" windowHeight="10680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2220" windowWidth="24870" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1763,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2929,7 +2929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/lib/net45/Data/Config.xlsx
+++ b/lib/net45/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INGESI\studio\UiPath\IP_Allocation_Dispatcher.1.0.84\lib\net45\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199B5C9A-D25B-4F00-AA25-9C26D1FD1009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DF7B4B-D298-48D9-976C-213E965B8613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2220" windowWidth="24870" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="2220" windowWidth="24870" windowHeight="9330" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>SAP_ClientNumber</t>
-  </si>
-  <si>
-    <t>SAP_System</t>
   </si>
   <si>
     <t>SAP_ConnectionName</t>
@@ -693,7 +690,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>43</v>
@@ -724,42 +721,42 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1763,7 +1760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2927,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z991"/>
+  <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2985,40 +2982,40 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -3026,98 +3023,98 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
-        <v>58</v>
+      <c r="B9" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
         <v>67</v>
       </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
@@ -3128,7 +3125,7 @@
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -3139,35 +3136,25 @@
         <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -4126,7 +4113,6 @@
     <row r="988" ht="14.25" customHeight="1"/>
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
